--- a/document/設計書/PKG/システム構成図/システム構成.xlsx
+++ b/document/設計書/PKG/システム構成図/システム構成.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitServer\GitHub\document\設計書\PKG\システム構成図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83415D6-6F4F-4A32-A8AC-E4C8957464AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC18403E-53FF-4273-A0CF-6A3A99DE1568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{F96D9774-11A2-45B9-ACBD-FF56BDE0D73D}"/>
   </bookViews>
   <sheets>
     <sheet name="構成図" sheetId="1" r:id="rId1"/>
+    <sheet name="データフロー図" sheetId="4" r:id="rId2"/>
+    <sheet name="形式フォーマット" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">構成図!$A$1:$CP$68</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>■</t>
     <phoneticPr fontId="1"/>
@@ -38,7 +43,24 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MainSystem</t>
+    <t>メインシステム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主要マスタ部分</t>
+    <rPh sb="0" eb="2">
+      <t>シュヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データフロー図</t>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -46,7 +68,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +101,41 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="4"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -102,7 +159,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -116,6 +173,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -139,15 +211,355 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>57</xdr:col>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>108818</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>118905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>79657</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>94843</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="矢印: 左右 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23EECD10-629A-4399-A1D5-AD074F9102CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1952678">
+          <a:off x="9668454" y="5716141"/>
+          <a:ext cx="2049021" cy="446993"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>77347</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>193962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>97972</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121686</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="矢印: 左右 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6FD5E1C-CD72-4C0A-AAA1-7E27E6F4DC51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10005118" y="4700648"/>
+          <a:ext cx="1468425" cy="384924"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>72683</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>186204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>36820</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>77074</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="矢印: 左右 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60AA5589-CDB0-417A-B824-FBFB23E77CFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19749560">
+          <a:off x="9632319" y="3539004"/>
+          <a:ext cx="2042319" cy="445052"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>91203</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>221672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>163251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="矢印: 左右 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5DE6AA6-4F71-41E6-B4B7-D23439D94AC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7157021" y="8880763"/>
+          <a:ext cx="1100288" cy="412633"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>81462</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>134043</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>128121</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矢印: 左右 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB620836-B4B4-403B-88AD-39BCC42C5393}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="17743765">
+          <a:off x="5770098" y="6733994"/>
+          <a:ext cx="3638218" cy="468218"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>161367</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>170325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>125507</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>170325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>125507</xdr:colOff>
-      <xdr:row>13</xdr:row>
       <xdr:rowOff>259973</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -222,13 +634,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>35859</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>26894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>194086</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -244,8 +656,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="860612" y="10614212"/>
-          <a:ext cx="364415" cy="786653"/>
+          <a:off x="863173" y="8082323"/>
+          <a:ext cx="365056" cy="773206"/>
           <a:chOff x="3314700" y="3017520"/>
           <a:chExt cx="525780" cy="1104900"/>
         </a:xfrm>
@@ -353,15 +765,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>57</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>197226</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>261318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
+      <xdr:col>77</xdr:col>
       <xdr:colOff>161366</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>19272</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -434,15 +846,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>170332</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>170329</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>207530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>134472</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>134469</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>17926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -458,7 +870,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9036426" y="9503930"/>
+          <a:off x="11716870" y="8983977"/>
           <a:ext cx="1201270" cy="1208890"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -531,16 +943,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>188259</xdr:colOff>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>143435</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>107576</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>73062</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>77</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>215153</xdr:rowOff>
+      <xdr:rowOff>8965</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -555,7 +967,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14827624" y="3174850"/>
+          <a:off x="14988988" y="3793415"/>
           <a:ext cx="1201270" cy="1208891"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -628,15 +1040,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>73</xdr:col>
+      <xdr:col>87</xdr:col>
       <xdr:colOff>71719</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>180637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>79</xdr:col>
+      <xdr:col>93</xdr:col>
       <xdr:colOff>35859</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>224117</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -725,15 +1137,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>58</xdr:col>
+      <xdr:col>72</xdr:col>
       <xdr:colOff>17932</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>55130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
+      <xdr:col>77</xdr:col>
       <xdr:colOff>188261</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>90988</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -808,13 +1220,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>35856</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>98611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>44821</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>17929</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -883,13 +1295,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>8965</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>98611</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -949,32 +1361,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>25977</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>88378</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>142518</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>25027</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>10308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>107576</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>107574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="矢印: 右 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F4E717-5921-4E11-AEE5-F4FE7D2235D2}"/>
+        <xdr:cNvPr id="19" name="矢印: 右 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40AD1EC9-444A-4F64-B800-02EB969A727A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="17310214">
-          <a:off x="2101605" y="7210538"/>
-          <a:ext cx="4831379" cy="322729"/>
+        <a:xfrm>
+          <a:off x="4303059" y="9486002"/>
+          <a:ext cx="959223" cy="330348"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1017,151 +1429,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>35859</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>206189</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>17930</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>62752</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="矢印: 右 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9752650-ABD2-42C6-A605-87235FBA2BE0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7252447" y="5199530"/>
-          <a:ext cx="1219201" cy="322728"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>28237</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>179293</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>125503</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="矢印: 右 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40AD1EC9-444A-4F64-B800-02EB969A727A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4419600" y="10023884"/>
-          <a:ext cx="914399" cy="330348"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>89643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>8965</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>8961</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1228,83 +1504,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>38601</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>274949</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>151961</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>41866</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="矢印: 右 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73189D9-74CC-4E1E-8FA3-A357F2B3D785}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="19556750">
-          <a:off x="6842813" y="3376737"/>
-          <a:ext cx="1762866" cy="322729"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>26893</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>80678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>35858</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>135811</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1371,15 +1579,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>143435</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>134469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>8966</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1427,15 +1635,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>71718</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>224117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>161365</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>233081</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1483,15 +1691,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
+      <xdr:col>63</xdr:col>
       <xdr:colOff>53789</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>107575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>125508</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>17930</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1548,15 +1756,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>179294</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>116542</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>179295</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1613,15 +1821,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>8963</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>71713</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>17928</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>216493</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1688,15 +1896,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>179294</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>134469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>44825</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1744,15 +1952,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>107577</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>35858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>197224</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>44822</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1800,15 +2008,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
+      <xdr:col>63</xdr:col>
       <xdr:colOff>89648</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>35858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>161367</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>224118</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1865,15 +2073,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>8965</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>224118</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>80683</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1930,83 +2138,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>11707</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>77724</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>125067</xdr:colOff>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>17928</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>98607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>26893</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>167371</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="矢印: 右 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60DF387E-0DD3-41FF-A2B9-27AB12ED062E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="1749661">
-          <a:off x="6815919" y="5411724"/>
-          <a:ext cx="1762866" cy="322729"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>17928</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>98607</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>26893</xdr:colOff>
-      <xdr:row>27</xdr:row>
       <xdr:rowOff>10305</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2073,15 +2213,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>17929</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>206186</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>89648</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>206188</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2129,15 +2269,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>107576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>35859</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>116540</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2185,15 +2325,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
+      <xdr:col>63</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>89646</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>58</xdr:col>
+      <xdr:col>72</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2250,15 +2390,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>53788</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>62753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>197224</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2315,15 +2455,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>8963</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>8961</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>98608</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>17928</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>17926</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>10306</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2339,7 +2479,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5576045" y="9861173"/>
+          <a:off x="8256490" y="9341220"/>
           <a:ext cx="1658471" cy="610945"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2390,15 +2530,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>26894</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>26891</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>215152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>98612</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>98609</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>215154</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2414,8 +2554,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7449670" y="9977717"/>
-          <a:ext cx="1308848" cy="2"/>
+          <a:off x="10130115" y="9457764"/>
+          <a:ext cx="1308847" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2446,15 +2586,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>161365</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>161363</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>116542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>44820</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>125506</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2470,8 +2610,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="7377953" y="10345271"/>
-          <a:ext cx="1326776" cy="8964"/>
+          <a:off x="10058398" y="9825318"/>
+          <a:ext cx="1326775" cy="8964"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2502,15 +2642,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>143436</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>143433</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>98612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>8966</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>8963</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>98613</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2526,7 +2666,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7153836" y="9395012"/>
+          <a:off x="9834280" y="8875059"/>
           <a:ext cx="1721224" cy="466166"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2567,15 +2707,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>62753</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>62750</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>71719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>206185</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>161367</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2591,8 +2731,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7485529" y="10533531"/>
-          <a:ext cx="1174377" cy="322730"/>
+          <a:off x="10165974" y="10013578"/>
+          <a:ext cx="1174376" cy="322730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2632,16 +2772,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>17929</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>17930</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>358588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>206188</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2656,8 +2796,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4966447" y="1792941"/>
-          <a:ext cx="9672917" cy="17463247"/>
+          <a:off x="7877416" y="1011731"/>
+          <a:ext cx="9082527" cy="12257955"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2691,6 +2831,213 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>188258</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{589213BC-28A7-492F-94FA-4E9F173F2ED5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8041341" y="2868706"/>
+          <a:ext cx="5549152" cy="5262282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>8961</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>17926</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="四角形: 角を丸くする 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB290207-240F-441E-B9A8-460621DE2F48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5369855" y="9341224"/>
+          <a:ext cx="1658471" cy="618565"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メイン画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>206187</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>62754</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE5F62CD-9389-49A8-BCCC-F7CB32C4F2DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="412375" y="8866094"/>
+          <a:ext cx="1299885" cy="394447"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>エンドユーザ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2996,82 +3343,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010C490D-B8EA-45C6-9A0A-0AB65F6D4CC5}">
-  <dimension ref="B2:Y16"/>
+  <dimension ref="B1:BB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE15" sqref="AE15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="AW26" sqref="AW26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="21" max="35" width="2.69921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="28.8" x14ac:dyDescent="0.45">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="2:54" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
-    <row r="3" spans="2:25" ht="22.2" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:54" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="2:54" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
+      <c r="AM3" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="2:25" ht="22.2" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:54" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
+      <c r="AM4" s="4"/>
     </row>
-    <row r="5" spans="2:25" ht="22.2" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:54" ht="26.4" x14ac:dyDescent="0.45">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
+      <c r="BB5" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="2:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:54" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="Y6" s="4" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="7" spans="2:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:54" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="Y7" s="4"/>
     </row>
-    <row r="8" spans="2:25" ht="28.8" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:54" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="Y8" s="4"/>
     </row>
-    <row r="9" spans="2:25" ht="22.2" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:54" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3079,7 +3439,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:25" ht="22.2" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:54" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3087,7 +3447,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:25" ht="22.2" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:54" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3095,7 +3455,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:25" ht="22.2" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:54" ht="22.2" x14ac:dyDescent="0.45">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -3103,42 +3463,63 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:25" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E31" s="5"/>
     </row>
-    <row r="14" spans="2:25" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:25" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:25" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="35" fitToWidth="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F0144B-6F21-4C1A-A931-3322BFC117AC}">
+  <dimension ref="B1:D1"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:4" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE1C5FF-95B2-4971-BBB8-8F7CC35DD6AE}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="B2:C2"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:3" ht="28.8" x14ac:dyDescent="0.45">
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>